--- a/src/main/java/com/qa/keyword/scenarios/ARTTestData.xlsx
+++ b/src/main/java/com/qa/keyword/scenarios/ARTTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="OnBoarding" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="193">
   <si>
     <t>test step</t>
   </si>
@@ -955,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,64 +989,64 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1057,36 +1057,36 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -1114,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1125,101 +1125,101 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -1261,46 +1261,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://sit-partner.alrajhitakaful.com.cm/register"/>
-    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1290,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,8 +1559,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://sit-partner.alrajhitakaful.com.cm/register"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://sit-partner.alrajhitakaful.com.cm/register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2224,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -3167,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
